--- a/results/mp/logistic/corona/confidence/210/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,51 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>died</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -100,148 +100,178 @@
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -599,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>34</v>
@@ -718,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -886,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -936,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>39</v>
@@ -945,10 +975,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.455026455026455</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C11">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4067796610169492</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>0.7816901408450704</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3783783783783784</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3585271317829458</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C14">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D14">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1286,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2363636363636364</v>
+        <v>0.28</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2266666666666667</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1879194630872483</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1416666666666667</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.07142857142857142</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.04289544235924933</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,37 +1648,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006748207507380852</v>
+        <v>0.008</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="F22">
-        <v>0.6699999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,37 +1698,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004516129032258065</v>
+        <v>0.00702576112412178</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F23">
-        <v>0.6699999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3086</v>
+        <v>2120</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.6264705882352941</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,37 +1748,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004071406201064829</v>
+        <v>0.006127055788455337</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="F24">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3180</v>
+        <v>3082</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,37 +1798,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003706277507528376</v>
+        <v>0.006073752711496746</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
       <c r="F25">
-        <v>0.5900000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4301</v>
+        <v>2291</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,49 +1848,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003498542274052478</v>
+        <v>0.003694341823838227</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F26">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5127</v>
+        <v>5124</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L26">
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,37 +1898,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.003017501508750754</v>
+        <v>0.003221908981071285</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F27">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4956</v>
+        <v>4950</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1910,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,13 +1948,13 @@
         <v>59</v>
       </c>
       <c r="K28">
-        <v>0.5690376569037657</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1936,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1944,13 +1974,13 @@
         <v>60</v>
       </c>
       <c r="K29">
-        <v>0.559322033898305</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L29">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1962,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1970,13 +2000,13 @@
         <v>61</v>
       </c>
       <c r="K30">
-        <v>0.5571428571428572</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1988,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1996,13 +2026,13 @@
         <v>62</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2014,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2022,13 +2052,13 @@
         <v>63</v>
       </c>
       <c r="K32">
-        <v>0.5185185185185185</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2040,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2048,13 +2078,13 @@
         <v>64</v>
       </c>
       <c r="K33">
-        <v>0.475</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2066,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2074,13 +2104,13 @@
         <v>65</v>
       </c>
       <c r="K34">
-        <v>0.4719101123595505</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2092,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2100,13 +2130,13 @@
         <v>66</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2118,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2126,13 +2156,13 @@
         <v>67</v>
       </c>
       <c r="K36">
-        <v>0.3939393939393939</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2144,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2152,13 +2182,13 @@
         <v>68</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2170,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2178,13 +2208,13 @@
         <v>69</v>
       </c>
       <c r="K38">
-        <v>0.3111111111111111</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2196,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2204,13 +2234,13 @@
         <v>70</v>
       </c>
       <c r="K39">
-        <v>0.2465753424657534</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2222,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2230,13 +2260,13 @@
         <v>71</v>
       </c>
       <c r="K40">
-        <v>0.2435897435897436</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2248,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2256,25 +2286,25 @@
         <v>72</v>
       </c>
       <c r="K41">
-        <v>0.01669449081803005</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1178</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2282,25 +2312,25 @@
         <v>73</v>
       </c>
       <c r="K42">
-        <v>0.01005656819610308</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N42">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1575</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2308,25 +2338,25 @@
         <v>74</v>
       </c>
       <c r="K43">
-        <v>0.007499062617172854</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2647</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2334,77 +2364,337 @@
         <v>75</v>
       </c>
       <c r="K44">
-        <v>0.005742411812961444</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2424</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.005019072475406545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>4956</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48">
+        <v>0.203125</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49">
+        <v>0.02559414990859232</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50">
+        <v>0.01416666666666667</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51">
+        <v>0.008793969849246231</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <v>0.88</v>
+      </c>
+      <c r="O51">
+        <v>0.12</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52">
+        <v>0.00675422138836773</v>
+      </c>
+      <c r="L52">
+        <v>18</v>
+      </c>
+      <c r="M52">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53">
+        <v>0.006024096385542169</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>46</v>
+      </c>
+      <c r="N53">
+        <v>0.65</v>
+      </c>
+      <c r="O53">
+        <v>0.35</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K46">
-        <v>0.003885758694385079</v>
-      </c>
-      <c r="L46">
-        <v>20</v>
-      </c>
-      <c r="M46">
-        <v>38</v>
-      </c>
-      <c r="N46">
-        <v>0.53</v>
-      </c>
-      <c r="O46">
-        <v>0.47</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>5127</v>
+      <c r="K54">
+        <v>0.004275165176836378</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>41</v>
+      </c>
+      <c r="N54">
+        <v>0.54</v>
+      </c>
+      <c r="O54">
+        <v>0.46</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55">
+        <v>0.004072681704260651</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>22</v>
+      </c>
+      <c r="N55">
+        <v>0.59</v>
+      </c>
+      <c r="O55">
+        <v>0.41</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56">
+        <v>0.003243744207599629</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>26</v>
+      </c>
+      <c r="N56">
+        <v>0.54</v>
+      </c>
+      <c r="O56">
+        <v>0.46</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>4302</v>
       </c>
     </row>
   </sheetData>
